--- a/BADGOTRON/Schemas/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
+++ b/BADGOTRON/Schemas/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Desktop\cake\elec\BADGOTRON\Project Outputs for badgotron\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Documents\GitHub\elec\BADGOTRON\Schemas\Project Outputs for badgotron\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="237">
   <si>
     <t>Quantity</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>(Déjà dans les cahiers)</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -963,6 +966,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,42 +976,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <strike/>
@@ -1297,7 +1270,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1283,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1367,8 +1340,11 @@
       <c r="I2" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1397,7 +1373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1425,8 +1401,11 @@
       <c r="I4" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1448,14 +1427,14 @@
       <c r="G5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1484,7 +1463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1512,8 +1491,11 @@
       <c r="I7" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1541,8 +1523,11 @@
       <c r="I8" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1570,8 +1555,11 @@
       <c r="I9" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1599,8 +1587,11 @@
       <c r="I10" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1628,8 +1619,11 @@
       <c r="I11" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1657,8 +1651,11 @@
       <c r="I12" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1716,7 +1713,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1745,7 +1742,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1772,6 +1769,9 @@
       </c>
       <c r="I16" s="3" t="s">
         <v>158</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1802,6 +1802,9 @@
       <c r="I17" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1831,6 +1834,9 @@
       <c r="I18" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1860,6 +1866,9 @@
       <c r="I19" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1889,6 +1898,9 @@
       <c r="I20" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2034,6 +2046,9 @@
       <c r="I25" s="3" t="s">
         <v>215</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2063,6 +2078,9 @@
       <c r="I26" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -2092,6 +2110,9 @@
       <c r="I27" s="3" t="s">
         <v>223</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -2121,6 +2142,9 @@
       <c r="I28" s="6" t="s">
         <v>230</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -2150,7 +2174,7 @@
       <c r="I29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="13" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2182,7 +2206,7 @@
       <c r="I30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
@@ -2212,7 +2236,7 @@
       <c r="I31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
@@ -2242,7 +2266,7 @@
       <c r="I32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -2272,7 +2296,7 @@
       <c r="I33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
@@ -2302,7 +2326,7 @@
       <c r="I34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -2332,7 +2356,7 @@
       <c r="I35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
@@ -2362,7 +2386,7 @@
       <c r="I36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
@@ -2392,7 +2416,7 @@
       <c r="I37" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
@@ -2422,7 +2446,7 @@
       <c r="I38" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J38" s="13"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
@@ -2452,7 +2476,7 @@
       <c r="I39" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
@@ -2482,7 +2506,7 @@
       <c r="I40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="13"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -2512,7 +2536,7 @@
       <c r="I41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="13"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
@@ -2542,7 +2566,7 @@
       <c r="I42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J42" s="13"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -2572,7 +2596,7 @@
       <c r="I43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="14"/>
+      <c r="J43" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I43">
@@ -2584,7 +2608,7 @@
     <mergeCell ref="J29:J43"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I43">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BADGOTRON/Schemas/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
+++ b/BADGOTRON/Schemas/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="237">
   <si>
     <t>Quantity</t>
   </si>
@@ -632,9 +632,6 @@
     <t>Microchip</t>
   </si>
   <si>
-    <t>2810109</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -738,6 +735,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>2774943</t>
   </si>
 </sst>
 </file>
@@ -1269,15 +1269,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="55.85546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
@@ -1341,7 +1343,7 @@
         <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1402,7 +1404,7 @@
         <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,6 +1464,9 @@
       <c r="I6" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1492,7 +1497,7 @@
         <v>94</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1524,7 +1529,7 @@
         <v>111</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1541,7 +1546,7 @@
         <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>120</v>
@@ -1556,7 +1561,7 @@
         <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1588,7 +1593,7 @@
         <v>129</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1620,7 +1625,7 @@
         <v>132</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1652,7 +1657,7 @@
         <v>137</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1683,6 +1688,9 @@
       <c r="I13" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1771,7 +1779,7 @@
         <v>158</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1803,7 +1811,7 @@
         <v>163</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1835,7 +1843,7 @@
         <v>169</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1867,7 +1875,7 @@
         <v>188</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1899,7 +1907,7 @@
         <v>192</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1957,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1965,28 +1973,28 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1994,28 +2002,28 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2023,31 +2031,31 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2055,31 +2063,31 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>195</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2087,31 +2095,31 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2119,31 +2127,31 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2175,7 +2183,7 @@
         <v>42</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">

--- a/BADGOTRON/Schemas/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
+++ b/BADGOTRON/Schemas/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Desktop\GitHub\elec\BADGOTRON\Schemas\Project Outputs for badgotron\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-badgotron" sheetId="1" r:id="rId1"/>
@@ -742,7 +747,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +757,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,13 +806,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,11 +1104,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:I39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="4" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1109,177 +1146,177 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1312,32 +1349,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1370,293 +1407,293 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1718,90 +1755,90 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="H23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1863,90 +1900,90 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1979,293 +2016,293 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="H33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="H34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="H35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="H37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>1</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="3" t="s">
+      <c r="H38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="3" t="s">
+      <c r="H39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>1</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="H40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>1</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="3" t="s">
+      <c r="H41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>227</v>
       </c>
     </row>
